--- a/PCB and BOM/IMPORTANT_components_information.xlsx
+++ b/PCB and BOM/IMPORTANT_components_information.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="110">
   <si>
     <t>74HC595</t>
   </si>
@@ -342,7 +342,13 @@
     <t>https://www.aliexpress.com/item/32797618620.html?spm=a2g0s.9042311.0.0.27424c4dcRtysh</t>
   </si>
   <si>
-    <t>Please note that some of the components are not available for JLCPCB assembly. You will have to order those separatery and solder them yourself. Everything can be ordered from LCSC.</t>
+    <t>1) Please note that some of the components are not available for JLCPCB assembly. You will have to order those separatery and solder them yourself. Everything can be ordered from LCSC.</t>
+  </si>
+  <si>
+    <t>2) If you order JLCPCB assembly, make sure they position display LEDs with cathodes pointing to bottom left as it's not obvious from the silk screen.</t>
+  </si>
+  <si>
+    <t>IMPORTANT ASSEMBLY NOTES:</t>
   </si>
 </sst>
 </file>
@@ -755,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:H83"/>
+  <dimension ref="B2:H83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -771,6 +777,11 @@
     <col min="8" max="8" width="193.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+    </row>
     <row r="3" spans="2:8" ht="15">
       <c r="B3" s="8" t="s">
         <v>107</v>
@@ -782,6 +793,17 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
+    <row r="4" spans="2:8" ht="15">
+      <c r="B4" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
     <row r="6" spans="2:8">
       <c r="B6" s="4" t="s">
         <v>13</v>
@@ -1515,8 +1537,9 @@
       <c r="C83" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H26" r:id="rId1"/>

--- a/PCB and BOM/IMPORTANT_components_information.xlsx
+++ b/PCB and BOM/IMPORTANT_components_information.xlsx
@@ -12,14 +12,14 @@
     <sheet name="List3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List1!$B$6:$H$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List1!$B$7:$H$34</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
   <si>
     <t>74HC595</t>
   </si>
@@ -210,9 +210,6 @@
     <t>schottky diode</t>
   </si>
   <si>
-    <t>1N5819WS or similar</t>
-  </si>
-  <si>
     <t>red or other LED, lights up when charging, turns off when charging is finished</t>
   </si>
   <si>
@@ -342,20 +339,26 @@
     <t>https://www.aliexpress.com/item/32797618620.html?spm=a2g0s.9042311.0.0.27424c4dcRtysh</t>
   </si>
   <si>
-    <t>1) Please note that some of the components are not available for JLCPCB assembly. You will have to order those separatery and solder them yourself. Everything can be ordered from LCSC.</t>
-  </si>
-  <si>
-    <t>2) If you order JLCPCB assembly, make sure they position display LEDs with cathodes pointing to bottom left as it's not obvious from the silk screen.</t>
-  </si>
-  <si>
     <t>IMPORTANT ASSEMBLY NOTES:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) If you order JLCPCB assembly, make sure they position display LEDs with cathodes (-) pointing to bottom left as it's not obvious from the silk screen. </t>
+  </si>
+  <si>
+    <t>3) Their components placement previewer is totally off, don't freak out when you see components placed randomly on the pcb, they will fix it later after you place the order. Just make sure about 2)</t>
+  </si>
+  <si>
+    <t>1) Please note that some of the components are not available for JLCPCB assembly. You will have to order those separatery and solder them yourself. Everything can be ordered from LCSC (see lcsc part numbers below) or Ali.</t>
+  </si>
+  <si>
+    <t>1N5819WS or similar, one of the diodes is at the bottom so it can’t be assembled by JLCPCB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,8 +406,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +444,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -443,7 +459,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -451,8 +467,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -464,10 +481,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
     <cellStyle name="Chybně" xfId="3" builtinId="27"/>
+    <cellStyle name="Neutrální" xfId="4" builtinId="28"/>
     <cellStyle name="normální" xfId="0" builtinId="0"/>
     <cellStyle name="Správně" xfId="2" builtinId="26"/>
   </cellStyles>
@@ -761,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H83"/>
+  <dimension ref="B2:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -779,12 +798,12 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15">
       <c r="B3" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -795,7 +814,7 @@
     </row>
     <row r="4" spans="2:8" ht="15">
       <c r="B4" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -804,488 +823,476 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="4" t="s">
+    <row r="5" spans="2:8" ht="15">
+      <c r="B5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="G8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="16.5">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="16.5">
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8">
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="G9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="16.5">
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="H9" s="3" t="s">
+    <row r="10" spans="2:8" ht="16.5">
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="H10" s="3" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16">
+      <c r="D17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17">
         <v>1</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="C17" s="1"/>
+      <c r="G17" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="H17" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="C18" s="1"/>
+      <c r="H18" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19">
+      <c r="F20">
         <v>2</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" t="s">
+      <c r="G20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" t="s">
-        <v>33</v>
+      <c r="B22" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24">
+      <c r="E25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25">
         <v>1</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="G25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26">
+      <c r="E26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27">
         <v>1</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="3" t="s">
+      <c r="G27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="16.5">
-      <c r="C27" s="1"/>
-      <c r="E27" t="s">
-        <v>102</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="3" t="s">
+    <row r="28" spans="2:8" ht="16.5">
+      <c r="C28" s="1"/>
+      <c r="E28" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" ht="16.5">
       <c r="G28" s="2"/>
       <c r="H28" s="3" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="16.5">
       <c r="G29" s="2"/>
       <c r="H29" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="16.5">
+      <c r="G30" s="2"/>
+      <c r="H30" s="3" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30">
-        <v>91</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="31" spans="2:8">
@@ -1293,68 +1300,87 @@
         <v>43</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31">
+        <v>91</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31">
+      <c r="E32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32">
         <v>1</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="G32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="H32" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
     <row r="33" spans="2:8">
-      <c r="B33" t="s">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="H33" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" t="s">
         <v>43</v>
       </c>
-      <c r="C33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="H35" t="s">
         <v>96</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="H34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="H35" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="H36" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="1"/>
@@ -1536,41 +1562,46 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
+    <row r="84" spans="2:3">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H26" r:id="rId1"/>
-    <hyperlink ref="H28" r:id="rId2"/>
-    <hyperlink ref="H9" r:id="rId3"/>
-    <hyperlink ref="H8" r:id="rId4"/>
-    <hyperlink ref="E7" r:id="rId5" display="https://lcsc.com/product-detail/74-Series_Nexperia_74HC595D-118_74HC595D-118_C5947.html/?href=jlc-SMT"/>
-    <hyperlink ref="E8" r:id="rId6" display="https://lcsc.com/product-detail/Tactile-Switches_XKB-Enterprise-TS-1187-B-A-A_C318884.html/?href=jlc-SMT"/>
-    <hyperlink ref="E10" r:id="rId7" display="https://lcsc.com/product-detail/Low-Dropout-Regulators-LDO_XC6206P332MR_C5446.html/?href=jlc-SMT"/>
-    <hyperlink ref="E11" r:id="rId8" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0603WAF6803T5E_C25822.html/?href=jlc-SMT"/>
-    <hyperlink ref="E12" r:id="rId9" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0603WAF2003T5E_C25811.html/?href=jlc-SMT"/>
-    <hyperlink ref="E13" r:id="rId10" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL10A106KP8NNNC_10uF-106-10-10V_C19702.html/?href=jlc-SMT"/>
-    <hyperlink ref="E14" r:id="rId11" display="https://lcsc.com/product-detail/MOSFET_Alpha-Omega-Semicon_AO3400A_Alpha-Omega-Semicon-AOS-AO3400A_C20917.html/?href=jlc-SMT"/>
-    <hyperlink ref="E23" r:id="rId12" display="https://lcsc.com/product-detail/PMIC-Battery-Management_TP4054_C32574.html/?href=jlc-SMT"/>
-    <hyperlink ref="E15" r:id="rId13" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0603WAF1002T5E_C25804.html/?href=jlc-SMT"/>
-    <hyperlink ref="E18" r:id="rId14" display="https://lcsc.com/product-detail/Resistor-Networks-Arrays_Uniroyal-Elec-4D03WGJ0201T5E_C12003.html/?href=jlc-SMT"/>
-    <hyperlink ref="E19" r:id="rId15" display="https://lcsc.com/product-detail/Others_B5819WS_C191023.html/?href=jlc-SMT"/>
-    <hyperlink ref="E24" r:id="rId16" display="https://lcsc.com/product-detail/MOSFET_Alpha-Omega-Semicon_AO3401A_Alpha-Omega-Semicon-AOS-AO3401A_C15127.html/?href=jlc-SMT"/>
-    <hyperlink ref="E30" r:id="rId17" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_0603-Green-light_C72043.html/?href=jlc-SMT"/>
-    <hyperlink ref="E20" r:id="rId18" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_100nF-104-10-50V_C14663.html/?href=jlc-SMT"/>
-    <hyperlink ref="E21" r:id="rId19" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Hubei-KENTO-Elec-KT-0603R_C2286.html/?href=jlc-SMT"/>
-    <hyperlink ref="E22" r:id="rId20" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0603WAF1001T5E_C21190.html/?href=jlc-SMT"/>
-    <hyperlink ref="H17" r:id="rId21"/>
-    <hyperlink ref="H29" r:id="rId22"/>
-    <hyperlink ref="E33" r:id="rId23" display="https://lcsc.com/product-detail/Wire-To-Board-Wire-To-Wire-Connector_HX-Zhejiang-Yueqing-Hongxing-Elec-HX12501-2AWB_C442099.html"/>
-    <hyperlink ref="H35" r:id="rId24"/>
-    <hyperlink ref="E16" r:id="rId25" display="https://lcsc.com/product-detail/Temperature-Humidity-Sensors_Sensirion_SHT30-DIS-B_Sensirion-SHT30-DIS-B_C77361.html"/>
-    <hyperlink ref="H16" r:id="rId26"/>
-    <hyperlink ref="E25" r:id="rId27" display="https://lcsc.com/product-detail/WIFI-Modules_ESP-12S_C82898.html"/>
-    <hyperlink ref="H27" r:id="rId28"/>
-    <hyperlink ref="H32" r:id="rId29"/>
+    <hyperlink ref="H27" r:id="rId1"/>
+    <hyperlink ref="H29" r:id="rId2"/>
+    <hyperlink ref="H10" r:id="rId3"/>
+    <hyperlink ref="H9" r:id="rId4"/>
+    <hyperlink ref="E8" r:id="rId5" display="https://lcsc.com/product-detail/74-Series_Nexperia_74HC595D-118_74HC595D-118_C5947.html/?href=jlc-SMT"/>
+    <hyperlink ref="E9" r:id="rId6" display="https://lcsc.com/product-detail/Tactile-Switches_XKB-Enterprise-TS-1187-B-A-A_C318884.html/?href=jlc-SMT"/>
+    <hyperlink ref="E11" r:id="rId7" display="https://lcsc.com/product-detail/Low-Dropout-Regulators-LDO_XC6206P332MR_C5446.html/?href=jlc-SMT"/>
+    <hyperlink ref="E12" r:id="rId8" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0603WAF6803T5E_C25822.html/?href=jlc-SMT"/>
+    <hyperlink ref="E13" r:id="rId9" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0603WAF2003T5E_C25811.html/?href=jlc-SMT"/>
+    <hyperlink ref="E14" r:id="rId10" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL10A106KP8NNNC_10uF-106-10-10V_C19702.html/?href=jlc-SMT"/>
+    <hyperlink ref="E15" r:id="rId11" display="https://lcsc.com/product-detail/MOSFET_Alpha-Omega-Semicon_AO3400A_Alpha-Omega-Semicon-AOS-AO3400A_C20917.html/?href=jlc-SMT"/>
+    <hyperlink ref="E24" r:id="rId12" display="https://lcsc.com/product-detail/PMIC-Battery-Management_TP4054_C32574.html/?href=jlc-SMT"/>
+    <hyperlink ref="E16" r:id="rId13" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0603WAF1002T5E_C25804.html/?href=jlc-SMT"/>
+    <hyperlink ref="E19" r:id="rId14" display="https://lcsc.com/product-detail/Resistor-Networks-Arrays_Uniroyal-Elec-4D03WGJ0201T5E_C12003.html/?href=jlc-SMT"/>
+    <hyperlink ref="E20" r:id="rId15" display="https://lcsc.com/product-detail/Others_B5819WS_C191023.html/?href=jlc-SMT"/>
+    <hyperlink ref="E25" r:id="rId16" display="https://lcsc.com/product-detail/MOSFET_Alpha-Omega-Semicon_AO3401A_Alpha-Omega-Semicon-AOS-AO3401A_C15127.html/?href=jlc-SMT"/>
+    <hyperlink ref="E31" r:id="rId17" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_0603-Green-light_C72043.html/?href=jlc-SMT"/>
+    <hyperlink ref="E21" r:id="rId18" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_100nF-104-10-50V_C14663.html/?href=jlc-SMT"/>
+    <hyperlink ref="E22" r:id="rId19" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Hubei-KENTO-Elec-KT-0603R_C2286.html/?href=jlc-SMT"/>
+    <hyperlink ref="E23" r:id="rId20" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0603WAF1001T5E_C21190.html/?href=jlc-SMT"/>
+    <hyperlink ref="H18" r:id="rId21"/>
+    <hyperlink ref="H30" r:id="rId22"/>
+    <hyperlink ref="E34" r:id="rId23" display="https://lcsc.com/product-detail/Wire-To-Board-Wire-To-Wire-Connector_HX-Zhejiang-Yueqing-Hongxing-Elec-HX12501-2AWB_C442099.html"/>
+    <hyperlink ref="H36" r:id="rId24"/>
+    <hyperlink ref="E17" r:id="rId25" display="https://lcsc.com/product-detail/Temperature-Humidity-Sensors_Sensirion_SHT30-DIS-B_Sensirion-SHT30-DIS-B_C77361.html"/>
+    <hyperlink ref="H17" r:id="rId26"/>
+    <hyperlink ref="E26" r:id="rId27" display="https://lcsc.com/product-detail/WIFI-Modules_ESP-12S_C82898.html"/>
+    <hyperlink ref="H28" r:id="rId28"/>
+    <hyperlink ref="H33" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId30"/>
